--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">nik@def.com</t>
   </si>
   <si>
-    <t xml:space="preserve">def789</t>
+    <t xml:space="preserve">def789ABC!</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.27"/>
   </cols>
